--- a/MedicalLink/Templates/BC_PhauThuatThuThuat_TT_NoiSoiDaDay_ThanhToan.xlsx
+++ b/MedicalLink/Templates/BC_PhauThuatThuThuat_TT_NoiSoiDaDay_ThanhToan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_MedicalLink\trunk\MedicalLink\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolsHIS-MedicalLink\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>STT</t>
   </si>
@@ -53,18 +53,12 @@
     <t>Số lượng</t>
   </si>
   <si>
-    <t>Mổ chính</t>
-  </si>
-  <si>
     <t>Giúp việc 1</t>
   </si>
   <si>
     <t>Ngày thanh toán</t>
   </si>
   <si>
-    <t>Tên BS</t>
-  </si>
-  <si>
     <t>Tiền</t>
   </si>
   <si>
@@ -147,6 +141,9 @@
   </si>
   <si>
     <t>BÁO CÁO THANH TOÁN TIỀN THỦ THUẬT NỘI SOI DẠ DÀY</t>
+  </si>
+  <si>
+    <t>Chính</t>
   </si>
 </sst>
 </file>
@@ -159,7 +156,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,13 +178,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="20"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -221,6 +211,26 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -242,7 +252,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -328,12 +338,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -350,14 +404,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -365,16 +415,10 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -405,9 +449,6 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -417,6 +458,12 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -432,20 +479,32 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -730,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,136 +798,139 @@
     <col min="1" max="1" width="5.7109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="9" style="3" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="3" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" style="8" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="36.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="6.5703125" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" style="1" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="7" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="7" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="17.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="7" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" style="9" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="7" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" style="8" customWidth="1"/>
     <col min="16" max="16" width="8.42578125" style="1" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>13</v>
+    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="9"/>
+      <c r="A2" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
     </row>
     <row r="3" spans="1:15" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
+      <c r="A4" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:15" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="31" t="s">
+      <c r="E7" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="F7" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="38" t="s">
+      <c r="K7" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="39"/>
+      <c r="M7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="39"/>
-      <c r="M7" s="38" t="s">
+      <c r="N7" s="42"/>
+      <c r="O7" s="26" t="s">
         <v>9</v>
-      </c>
-      <c r="N7" s="39"/>
-      <c r="O7" s="31" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="O8" s="32"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="41"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="27"/>
     </row>
     <row r="9" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -917,117 +979,112 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="23" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:15" s="19" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="D10" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="E10" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="H10" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="21" t="s">
+      <c r="I10" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="21" t="s">
+      <c r="K10" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="21" t="s">
+      <c r="M10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="22" t="s">
+      <c r="N10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="M10" s="21" t="s">
+      <c r="O10" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="O10" s="28" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="11" spans="1:15" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13">
+    <row r="11" spans="1:15" s="9" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11">
         <f>SUM(I10:I10)</f>
         <v>0</v>
       </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13">
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11">
         <f>SUM(L10:L10)</f>
         <v>0</v>
       </c>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13">
+      <c r="M11" s="11"/>
+      <c r="N11" s="11">
         <f>SUM(N10:N10)</f>
         <v>0</v>
       </c>
-      <c r="O11" s="14"/>
+      <c r="O11" s="12"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N13" s="15" t="s">
-        <v>17</v>
+      <c r="N13" s="13" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26" t="s">
+    <row r="15" spans="1:15" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="H15" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="H15" s="26" t="s">
+      <c r="N15" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="L15" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N15" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="O15" s="27"/>
+      <c r="O15" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="M7:N8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="F7:F8"/>
@@ -1036,6 +1093,11 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="I7:I8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/MedicalLink/Templates/BC_PhauThuatThuThuat_TT_NoiSoiDaDay_ThanhToan.xlsx
+++ b/MedicalLink/Templates/BC_PhauThuatThuThuat_TT_NoiSoiDaDay_ThanhToan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolsHIS-MedicalLink\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_MedicalLink\trunk\MedicalLink\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -137,13 +137,13 @@
     <t>Ngày thực hiện</t>
   </si>
   <si>
-    <t>&amp;=[DATA1].NGAY_THUCHIEN</t>
-  </si>
-  <si>
     <t>BÁO CÁO THANH TOÁN TIỀN THỦ THUẬT NỘI SOI DẠ DÀY</t>
   </si>
   <si>
     <t>Chính</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].NGAY_THUCHIEN_TP</t>
   </si>
 </sst>
 </file>
@@ -452,59 +452,59 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -790,7 +790,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,122 +815,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="28" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
+      <c r="A2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
     </row>
     <row r="3" spans="1:15" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:15" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="39"/>
-      <c r="M7" s="40" t="s">
+      <c r="K7" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="29"/>
+      <c r="M7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="42"/>
-      <c r="O7" s="26" t="s">
+      <c r="N7" s="34"/>
+      <c r="O7" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="41"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="33"/>
       <c r="L8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="41"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="27"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="37"/>
     </row>
     <row r="9" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -989,19 +989,19 @@
       <c r="C10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="26" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="27" t="s">
         <v>34</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="H10" s="26" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="17" t="s">
@@ -1027,12 +1027,12 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="9" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="11"/>
@@ -1081,6 +1081,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A4:O4"/>
     <mergeCell ref="K7:K8"/>
@@ -1088,11 +1093,6 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="H7:H8"/>

--- a/MedicalLink/Templates/BC_PhauThuatThuThuat_TT_NoiSoiDaDay_ThanhToan.xlsx
+++ b/MedicalLink/Templates/BC_PhauThuatThuThuat_TT_NoiSoiDaDay_ThanhToan.xlsx
@@ -62,9 +62,6 @@
     <t>Tiền</t>
   </si>
   <si>
-    <t>BỆNH VIỆN HỮU NGHỊ VIỆT TIỆP</t>
-  </si>
-  <si>
     <t>TỔNG CỘNG</t>
   </si>
   <si>
@@ -144,6 +141,9 @@
   </si>
   <si>
     <t>&amp;=[DATA1].NGAY_THUCHIEN_TP</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].TENBENHVIEN</t>
   </si>
 </sst>
 </file>
@@ -156,7 +156,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,13 +224,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -458,12 +451,24 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -488,23 +493,11 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -790,7 +783,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,122 +808,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
-        <v>11</v>
+      <c r="A1" s="43" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
+      <c r="A2" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
     </row>
     <row r="3" spans="1:15" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
-      <c r="H3" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
+      <c r="H3" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
+      <c r="A4" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:15" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="38" t="s">
+      <c r="E7" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="38" t="s">
+      <c r="H7" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="38" t="s">
+      <c r="J7" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" s="29"/>
-      <c r="M7" s="32" t="s">
+      <c r="K7" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="28"/>
+      <c r="M7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="34"/>
-      <c r="O7" s="36" t="s">
+      <c r="N7" s="38"/>
+      <c r="O7" s="40" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="33"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="37"/>
       <c r="L8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="33"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="41"/>
     </row>
     <row r="9" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -981,58 +974,58 @@
     </row>
     <row r="10" spans="1:15" s="19" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="C10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="D10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="E10" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="17" t="s">
+      <c r="H10" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="I10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="K10" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="17" t="s">
+      <c r="L10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="18" t="s">
+      <c r="M10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="17" t="s">
+      <c r="N10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="18" t="s">
+      <c r="O10" s="24" t="s">
         <v>27</v>
-      </c>
-      <c r="O10" s="24" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="9" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
+      <c r="A11" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="11"/>
@@ -1056,7 +1049,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N13" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -1064,28 +1057,23 @@
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="D15" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
       <c r="H15" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="N15" s="22" t="s">
         <v>31</v>
-      </c>
-      <c r="N15" s="22" t="s">
-        <v>32</v>
       </c>
       <c r="O15" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A4:O4"/>
     <mergeCell ref="K7:K8"/>
@@ -1098,6 +1086,11 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="I7:I8"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/MedicalLink/Templates/BC_PhauThuatThuThuat_TT_NoiSoiDaDay_ThanhToan.xlsx
+++ b/MedicalLink/Templates/BC_PhauThuatThuThuat_TT_NoiSoiDaDay_ThanhToan.xlsx
@@ -454,6 +454,42 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -462,42 +498,6 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -783,7 +783,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,122 +808,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="29" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
     </row>
     <row r="3" spans="1:15" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:15" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="36" t="s">
+      <c r="K7" s="32" t="s">
         <v>36</v>
       </c>
       <c r="L7" s="28"/>
-      <c r="M7" s="36" t="s">
+      <c r="M7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="38"/>
-      <c r="O7" s="40" t="s">
+      <c r="N7" s="34"/>
+      <c r="O7" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="37"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="33"/>
       <c r="L8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="37"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="41"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="37"/>
     </row>
     <row r="9" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1020,12 +1020,12 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="9" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="11"/>
@@ -1074,6 +1074,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A4:O4"/>
     <mergeCell ref="K7:K8"/>
@@ -1086,15 +1091,10 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;CTrang &amp;P</oddFooter>
   </headerFooter>

--- a/MedicalLink/Templates/BC_PhauThuatThuThuat_TT_NoiSoiDaDay_ThanhToan.xlsx
+++ b/MedicalLink/Templates/BC_PhauThuatThuThuat_TT_NoiSoiDaDay_ThanhToan.xlsx
@@ -457,6 +457,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -481,23 +496,8 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -783,7 +783,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,117 +813,117 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:15" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="38" t="s">
+      <c r="H7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="38" t="s">
+      <c r="J7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="K7" s="37" t="s">
         <v>36</v>
       </c>
       <c r="L7" s="28"/>
-      <c r="M7" s="32" t="s">
+      <c r="M7" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="34"/>
-      <c r="O7" s="36" t="s">
+      <c r="N7" s="39"/>
+      <c r="O7" s="41" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="33"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="38"/>
       <c r="L8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="33"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="37"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="42"/>
     </row>
     <row r="9" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1020,12 +1020,12 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="9" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="11"/>
@@ -1074,11 +1074,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A4:O4"/>
     <mergeCell ref="K7:K8"/>
@@ -1091,9 +1086,14 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="I7:I8"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;CTrang &amp;P</oddFooter>

--- a/MedicalLink/Templates/BC_PhauThuatThuThuat_TT_NoiSoiDaDay_ThanhToan.xlsx
+++ b/MedicalLink/Templates/BC_PhauThuatThuThuat_TT_NoiSoiDaDay_ThanhToan.xlsx
@@ -457,6 +457,39 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -465,39 +498,6 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -813,117 +813,117 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
     </row>
     <row r="3" spans="1:15" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:15" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="37" t="s">
+      <c r="K7" s="32" t="s">
         <v>36</v>
       </c>
       <c r="L7" s="28"/>
-      <c r="M7" s="37" t="s">
+      <c r="M7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="39"/>
-      <c r="O7" s="41" t="s">
+      <c r="N7" s="34"/>
+      <c r="O7" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="38"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="33"/>
       <c r="L8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="38"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="42"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="37"/>
     </row>
     <row r="9" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1020,12 +1020,12 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="9" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="11"/>
@@ -1074,6 +1074,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A4:O4"/>
     <mergeCell ref="K7:K8"/>
@@ -1086,11 +1091,6 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
